--- a/study/semester_1/informatika/course201_2/kontrol/Книга1.xlsx
+++ b/study/semester_1/informatika/course201_2/kontrol/Книга1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Documents\GitHub\work_project\study\semester_1\informatika\course201_2\kontrol\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E9A75-D473-43DA-B3F1-671FA5B71697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -29,15 +35,19 @@
   <si>
     <t xml:space="preserve"> x</t>
   </si>
+  <si>
+    <t>0011101111…</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +71,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -76,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -124,24 +143,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,8 +193,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -168,6 +220,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -216,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +304,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,6 +356,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -459,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J1:AI12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="J1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W21:W22"/>
+    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,441 +563,526 @@
     <col min="24" max="34" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:35" x14ac:dyDescent="0.25">
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-    </row>
-    <row r="2" spans="10:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+    </row>
+    <row r="2" spans="10:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="3" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="9">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="7"/>
-    </row>
-    <row r="3" spans="10:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="6"/>
+    </row>
+    <row r="3" spans="10:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="Q3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="9">
+      <c r="Q3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="7">
         <v>5</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="8">
         <v>4</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="6" t="s">
+      <c r="T3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AB3" s="15"/>
-      <c r="AC3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="7"/>
-    </row>
-    <row r="4" spans="10:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="AC3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="6"/>
+    </row>
+    <row r="4" spans="10:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>0.125</v>
       </c>
       <c r="L4" s="2"/>
-      <c r="M4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <v>0.5</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="11">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="9">
         <v>4</v>
       </c>
-      <c r="S4" s="12">
-        <v>1</v>
-      </c>
-      <c r="T4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="7"/>
-    </row>
-    <row r="5" spans="10:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J5" s="3"/>
-      <c r="K5" s="6">
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="6"/>
+    </row>
+    <row r="5" spans="10:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="13"/>
+      <c r="K5" s="5">
         <v>4</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="6">
+      <c r="M5" s="13"/>
+      <c r="N5" s="5">
         <v>4</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="9">
-        <v>1</v>
-      </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI5" s="7"/>
-    </row>
-    <row r="6" spans="10:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="6"/>
+    </row>
+    <row r="6" spans="10:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>0.5</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>2</v>
       </c>
       <c r="O6" s="2"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI6" s="7"/>
-    </row>
-    <row r="7" spans="10:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="6"/>
+    </row>
+    <row r="7" spans="10:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="7"/>
-    </row>
-    <row r="8" spans="10:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="6"/>
+    </row>
+    <row r="8" spans="10:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI8" s="7"/>
-    </row>
-    <row r="9" spans="10:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="W9" s="7"/>
-      <c r="X9" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="7"/>
-    </row>
-    <row r="10" spans="10:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="W10" s="7"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="7"/>
-    </row>
-    <row r="11" spans="10:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="W8" s="6"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="6"/>
+    </row>
+    <row r="9" spans="10:36" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="W9" s="6"/>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="6"/>
+    </row>
+    <row r="10" spans="10:36" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="6"/>
+    </row>
+    <row r="11" spans="10:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K11" s="1">
         <v>100111</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="7"/>
-    </row>
-    <row r="12" spans="10:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K12" s="6">
+      <c r="M11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="6"/>
+    </row>
+    <row r="12" spans="10:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="5">
         <v>11011</v>
       </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="10:36" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M13" s="2"/>
+      <c r="N13" s="18">
+        <v>1.01E-2</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="10:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+    </row>
+    <row r="15" spans="10:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20">
+        <v>10001001</v>
+      </c>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="6"/>
+    </row>
+    <row r="16" spans="10:36" x14ac:dyDescent="0.25">
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AI15"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="M11:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -916,7 +1090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -928,7 +1102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
